--- a/Doc/2.UI/銀行ダウンロード/出力エクセル/給与振込口座エラー.xlsx
+++ b/Doc/2.UI/銀行ダウンロード/出力エクセル/給与振込口座エラー.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="600" windowWidth="21135" windowHeight="9405"/>
+    <workbookView xWindow="0" yWindow="600" windowWidth="28770" windowHeight="12270"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,10 +21,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
-    <t>コード</t>
-  </si>
-  <si>
-    <t>名称</t>
+    <t>社員コード</t>
+  </si>
+  <si>
+    <t>氏名</t>
   </si>
   <si>
     <t>銀行コード</t>
@@ -375,13 +375,6 @@
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.75" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
